--- a/AWSConfig/ConformancePackwithRemediations/coverage/AWSPCIConformancePacksAutoHealingCoverage.xlsx
+++ b/AWSConfig/ConformancePackwithRemediations/coverage/AWSPCIConformancePacksAutoHealingCoverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub-awssamples\aws-config-pci-fsbp-ssmremediations\aws-devsecops-conformancepack-pci\coverage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub-amzn\aws-management-and-governance-samples\AWSConfig\ConformancePackwithRemediations\coverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
   <si>
     <t>Yes</t>
   </si>
@@ -230,9 +230,6 @@
     <t>[SSM.2] All EC2 instances managed by Systems Manager should be compliant with patching requirements</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>AWS Config PCI-DSS checks</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Yes- PCI overlap</t>
+  </si>
+  <si>
+    <t>CIS Overlap</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -762,21 +765,25 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
@@ -794,6 +801,9 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -802,6 +812,9 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -810,6 +823,9 @@
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
@@ -818,6 +834,9 @@
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
@@ -850,6 +869,9 @@
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
@@ -866,6 +888,9 @@
       <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
@@ -875,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -909,6 +934,9 @@
       <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
@@ -917,6 +945,9 @@
       <c r="C18" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
@@ -924,6 +955,9 @@
       </c>
       <c r="C19" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -960,6 +994,9 @@
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
@@ -1011,6 +1048,9 @@
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
@@ -1019,6 +1059,9 @@
       <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
@@ -1034,6 +1077,9 @@
       </c>
       <c r="C32" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1081,13 +1127,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,10 +1142,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1144,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1168,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1179,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1204,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1242,7 +1288,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -1253,7 +1299,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1453,6 +1499,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B804CAAC924FD246AAC2FBB8E8CC3975" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="574679e58e266fc9ee7cf315443f59a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5357d50a-c059-4999-b5e6-c73cf26c3e78" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8548d416c145f84c96b81fd6c9c2574" ns2:_="">
     <xsd:import namespace="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
@@ -1618,22 +1679,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A48F9B-AD05-4869-B1CB-AAD745C3926B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1649,28 +1719,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D5BD93-DB2E-464F-8CF7-2612201A18EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75505B-8D7F-4F30-BEE9-E094F3C09792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5357d50a-c059-4999-b5e6-c73cf26c3e78"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>